--- a/2026_01_16_today/cafe_sales_clean.xlsx
+++ b/2026_01_16_today/cafe_sales_clean.xlsx
@@ -492,7 +492,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" s="2" t="n">
+        <v>46023</v>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Latte</t>
